--- a/syllabus/schedule-2023.xlsx
+++ b/syllabus/schedule-2023.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813EB9D2-C274-480F-A77E-E0F46A699806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -76,12 +77,15 @@
   </si>
   <si>
     <t>Precision</t>
+  </si>
+  <si>
+    <t>Chapters 3,4,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,19 +406,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -425,7 +429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44573</v>
       </c>
@@ -433,7 +437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44580</v>
       </c>
@@ -444,7 +448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44587</v>
       </c>
@@ -452,15 +456,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44594</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44601</v>
       </c>
@@ -468,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44608</v>
       </c>
@@ -482,7 +489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44615</v>
       </c>
@@ -490,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44622</v>
       </c>
@@ -501,7 +508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44629</v>
       </c>
@@ -509,7 +516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44636</v>
       </c>
@@ -517,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
@@ -525,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44650</v>
       </c>
@@ -536,7 +543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44657</v>
       </c>
@@ -544,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44664</v>
       </c>
@@ -555,7 +562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44671</v>
       </c>
@@ -563,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44678</v>
       </c>

--- a/syllabus/schedule-2023.xlsx
+++ b/syllabus/schedule-2023.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813EB9D2-C274-480F-A77E-E0F46A699806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -61,9 +60,6 @@
     <t>readings</t>
   </si>
   <si>
-    <t>do we have a "review of the basics" first?? Couldn't hurt…</t>
-  </si>
-  <si>
     <t>(Time: The Poor Man's Exogeneity)</t>
   </si>
   <si>
@@ -80,12 +76,21 @@
   </si>
   <si>
     <t>Chapters 3,4,5</t>
+  </si>
+  <si>
+    <t>The Fundamental Problem</t>
+  </si>
+  <si>
+    <t>NHK 1-4</t>
+  </si>
+  <si>
+    <t>a review of the basics, plus design-based uncertainty, lady tasting tea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,19 +411,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -429,7 +434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44573</v>
       </c>
@@ -437,18 +442,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44580</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44587</v>
       </c>
@@ -456,7 +464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44594</v>
       </c>
@@ -464,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44601</v>
       </c>
@@ -475,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44608</v>
       </c>
@@ -483,13 +491,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44615</v>
       </c>
@@ -497,7 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44622</v>
       </c>
@@ -505,10 +513,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44629</v>
       </c>
@@ -516,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44636</v>
       </c>
@@ -524,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44643</v>
       </c>
@@ -532,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44650</v>
       </c>
@@ -540,10 +548,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44657</v>
       </c>
@@ -551,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44664</v>
       </c>
@@ -559,10 +567,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44671</v>
       </c>
@@ -570,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44678</v>
       </c>

--- a/syllabus/schedule-2023.xlsx
+++ b/syllabus/schedule-2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>date</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Thinking in DAGs</t>
   </si>
   <si>
-    <t>Selection on Observables (Regression)</t>
-  </si>
-  <si>
-    <t>Selection on Observables (Matching)</t>
-  </si>
-  <si>
     <t>Fixed Effects</t>
   </si>
   <si>
@@ -85,6 +79,27 @@
   </si>
   <si>
     <t>a review of the basics, plus design-based uncertainty, lady tasting tea</t>
+  </si>
+  <si>
+    <t>Selection on Observables (Regression &amp; Matching)</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>in class</t>
+  </si>
+  <si>
+    <t>a review of basic statistical concepts, how to R, GitHub</t>
+  </si>
+  <si>
+    <t>DAG slides</t>
+  </si>
+  <si>
+    <t>review questions + a replication</t>
+  </si>
+  <si>
+    <t>student presentations</t>
   </si>
 </sst>
 </file>
@@ -415,7 +430,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,8 +445,14 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -441,19 +462,22 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44580</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -463,6 +487,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -472,7 +499,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -482,19 +512,25 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44608</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -502,7 +538,10 @@
         <v>44615</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -510,10 +549,13 @@
         <v>44622</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -521,7 +563,10 @@
         <v>44629</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -529,7 +574,10 @@
         <v>44636</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -537,7 +585,10 @@
         <v>44643</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -545,10 +596,13 @@
         <v>44650</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -556,7 +610,10 @@
         <v>44657</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -564,10 +621,13 @@
         <v>44664</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -575,7 +635,10 @@
         <v>44671</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -583,7 +646,7 @@
         <v>44678</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
